--- a/forms/Form-3CE.xlsx
+++ b/forms/Form-3CE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D635D-CBC4-40B8-B511-DFD9F17829A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7194FA0-2447-4B2C-A73E-F88E8326222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Focal point</t>
   </si>
@@ -167,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -710,9 +729,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -751,22 +767,6 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -805,10 +805,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -860,15 +856,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1205,24 +1224,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1272,15 +1291,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1342,7 @@
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1334,7 +1353,7 @@
       <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1383,33 +1402,33 @@
       <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1438,7 +1457,7 @@
       <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1449,23 +1468,23 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="70"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,31 +1492,31 @@
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1505,23 +1524,23 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1532,7 +1551,7 @@
       <c r="C31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="10" t="s">
         <v>36</v>
       </c>
@@ -1580,11 +1599,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1648,152 +1667,152 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="59"/>
-    <col min="9" max="56" width="9.140625" style="57"/>
-    <col min="57" max="57" width="9.140625" style="60"/>
+    <col min="2" max="2" width="11.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="56" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="54"/>
+    <col min="9" max="56" width="9.140625" style="52"/>
+    <col min="57" max="57" width="9.140625" style="55"/>
     <col min="58" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:57" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="2:57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="73"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="67"/>
     </row>
     <row r="3" spans="2:57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="76"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="70"/>
     </row>
     <row r="4" spans="2:57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="83" t="s">
         <v>30</v>
       </c>
@@ -1848,25 +1867,25 @@
       <c r="BE4" s="85"/>
     </row>
     <row r="5" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -1921,9 +1940,9 @@
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -1979,9 +1998,9 @@
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
@@ -2037,9 +2056,9 @@
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
@@ -2095,9 +2114,9 @@
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
@@ -2153,9 +2172,9 @@
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
@@ -2211,9 +2230,9 @@
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -2269,9 +2288,9 @@
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
@@ -2327,9 +2346,9 @@
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -2385,9 +2404,9 @@
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
@@ -2443,9 +2462,9 @@
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -2501,9 +2520,9 @@
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -2559,9 +2578,9 @@
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="35"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -2617,9 +2636,9 @@
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -2675,9 +2694,9 @@
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
@@ -2733,9 +2752,9 @@
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -2791,9 +2810,9 @@
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -2849,9 +2868,9 @@
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="35"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -2907,9 +2926,9 @@
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -2965,9 +2984,9 @@
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="35"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -3023,9 +3042,9 @@
       <c r="B25" s="32"/>
       <c r="C25" s="33"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="35"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -3081,9 +3100,9 @@
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="35"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -3139,9 +3158,9 @@
       <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="35"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
@@ -3197,9 +3216,9 @@
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="35"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
@@ -3255,9 +3274,9 @@
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="35"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
@@ -3313,9 +3332,9 @@
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -3371,9 +3390,9 @@
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -3429,9 +3448,9 @@
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="35"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -3487,9 +3506,9 @@
       <c r="B33" s="32"/>
       <c r="C33" s="33"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="35"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -3545,9 +3564,9 @@
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="35"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
@@ -3603,9 +3622,9 @@
       <c r="B35" s="32"/>
       <c r="C35" s="33"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="35"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
@@ -3661,9 +3680,9 @@
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
@@ -3719,9 +3738,9 @@
       <c r="B37" s="32"/>
       <c r="C37" s="33"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="35"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
@@ -3777,9 +3796,9 @@
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="35"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
@@ -3835,9 +3854,9 @@
       <c r="B39" s="32"/>
       <c r="C39" s="33"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="35"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
@@ -3893,9 +3912,9 @@
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="35"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
@@ -3951,9 +3970,9 @@
       <c r="B41" s="32"/>
       <c r="C41" s="33"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="35"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -4009,9 +4028,9 @@
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="35"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
@@ -4067,9 +4086,9 @@
       <c r="B43" s="32"/>
       <c r="C43" s="33"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="35"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4125,9 +4144,9 @@
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="35"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
@@ -4183,9 +4202,9 @@
       <c r="B45" s="32"/>
       <c r="C45" s="33"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="35"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
@@ -4241,9 +4260,9 @@
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="35"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
@@ -4299,9 +4318,9 @@
       <c r="B47" s="32"/>
       <c r="C47" s="33"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
@@ -4357,9 +4376,9 @@
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="35"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
@@ -4415,9 +4434,9 @@
       <c r="B49" s="32"/>
       <c r="C49" s="33"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="35"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
@@ -4473,9 +4492,9 @@
       <c r="B50" s="32"/>
       <c r="C50" s="33"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="35"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
@@ -4531,9 +4550,9 @@
       <c r="B51" s="32"/>
       <c r="C51" s="33"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="46"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="35"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
@@ -4589,9 +4608,9 @@
       <c r="B52" s="32"/>
       <c r="C52" s="33"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
@@ -4647,9 +4666,9 @@
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="34"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="46"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
       <c r="H53" s="35"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
@@ -4705,9 +4724,9 @@
       <c r="B54" s="32"/>
       <c r="C54" s="33"/>
       <c r="D54" s="34"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
       <c r="H54" s="35"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
@@ -4763,9 +4782,9 @@
       <c r="B55" s="32"/>
       <c r="C55" s="33"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="46"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="35"/>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
@@ -4818,7 +4837,7 @@
       <c r="BE55" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UnGCGFp63YNCWYQSHHqOgEP3a3ofWoEll/sfPv6lK1pysP37msjfLYYazpiuW8K8w8W3LhKgpzvF6heoqTfAOQ==" saltValue="8u/cV8SVJ92Ii8kCPx70PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Kcgj5LfmBB02Ts3YHZGSsxRWwEMw2sdwh0tBFs9g/uWP0p7hXcsx503K2Ph8Xk6wL37SkV4K7cgsBCWn8xx+w==" saltValue="a3gNDxzsJjTMHdM3lLA9vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:BE3"/>
     <mergeCell ref="E4:G4"/>

--- a/forms/Form-3CE.xlsx
+++ b/forms/Form-3CE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7194FA0-2447-4B2C-A73E-F88E8326222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C513DA-A4F0-457E-B8C9-C707269013D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Focal point</t>
   </si>
@@ -805,6 +805,29 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -855,29 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1224,24 +1224,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1291,15 +1291,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,10 +1468,10 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="64"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1599,11 +1599,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,134 +1685,134 @@
       <c r="G1" s="39"/>
     </row>
     <row r="2" spans="2:57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="67"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="73"/>
     </row>
     <row r="3" spans="2:57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="70"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="75"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="76"/>
     </row>
     <row r="4" spans="2:57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="83" t="s">
         <v>30</v>
       </c>
@@ -1866,23 +1866,23 @@
       <c r="BD4" s="84"/>
       <c r="BE4" s="85"/>
     </row>
-    <row r="5" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="2:57" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="66" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="58"/>
@@ -4837,7 +4837,7 @@
       <c r="BE55" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Kcgj5LfmBB02Ts3YHZGSsxRWwEMw2sdwh0tBFs9g/uWP0p7hXcsx503K2Ph8Xk6wL37SkV4K7cgsBCWn8xx+w==" saltValue="a3gNDxzsJjTMHdM3lLA9vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cjtVN49YMtvTV0im3Dqy/fucVYZa8q5gHMlzGsxEdh2BZChaMYilyxPVQF6DDwBD5k6L+Wm4DM81D5qduhL9Mg==" saltValue="JRvmmvVG/HXiZ4KKxM41XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:BE3"/>
     <mergeCell ref="E4:G4"/>

--- a/forms/Form-3CE.xlsx
+++ b/forms/Form-3CE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276958B-4E53-4AFB-835A-62D6163C3408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023694D6-807C-43EE-9102-EBEDE226E681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1208,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1657,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2637,13 +2645,18 @@
       <c r="G55" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xCVfQUmn8nEVmFmBaBBndM1a7uhBk6gllaXFssFG9k9Gbutdr91S9nKQ4ZBNCku1zEPNGuU3o4EzXJmoxMeVdw==" saltValue="RKGiVl/SbpIjVCl5qTGWYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bckkvfW9iTFsi1hJ0wg25yopB5oWgHjC5kLXwzyQ7YISdf2ZMNiL0qjkwF4G2kHnXi0kuWy8AY6ngxihiEhrng==" saltValue="QUGg7d3rYwLKQGYmeMPRxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:DC3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:DC4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:DC1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:G5 H4:DC4" xr:uid="{31016D96-8818-45D3-9ED0-ABB5814EDB33}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-3CE.xlsx
+++ b/forms/Form-3CE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023694D6-807C-43EE-9102-EBEDE226E681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EF019-9D41-470D-9741-BBF73E63773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1665,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/forms/Form-3CE.xlsx
+++ b/forms/Form-3CE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EF019-9D41-470D-9741-BBF73E63773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA2CFE-56DB-482B-AE2C-4C6DAE1833BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
